--- a/mobi_client/mobi_client/mobi_config/excel/内部邮件表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/内部邮件表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -68,10 +68,10 @@
     <t>感谢作答~这是问卷的奖励~请收下~</t>
   </si>
   <si>
-    <t>3;600</t>
-  </si>
-  <si>
-    <t>201000;10</t>
+    <t>3;300</t>
+  </si>
+  <si>
+    <t>201000;5</t>
   </si>
   <si>
     <t>一二三四五六七八九十</t>
@@ -82,7 +82,7 @@
 2022年7月26日</t>
   </si>
   <si>
-    <t>201000;10|3;600|1;1000</t>
+    <t>201000;10|3;600|1;1000|201000;10|3;600|1;1000|201000;10|3;600|1;1000|201000;10|3;600|1;1000</t>
   </si>
   <si>
     <t>测试邮件5</t>
@@ -1158,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1278,49 +1278,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" ht="409.5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="409.5" spans="1:5">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="409.5" spans="1:5">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/mobi_client/mobi_client/mobi_config/excel/内部邮件表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/内部邮件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="MailTemplate|邮件模板表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -59,7 +59,7 @@
     <t>aaint</t>
   </si>
   <si>
-    <t>问卷奖励邮件</t>
+    <t>新人问卷奖励</t>
   </si>
   <si>
     <t>官方</t>
@@ -71,7 +71,19 @@
     <t>3;300</t>
   </si>
   <si>
+    <t>次日问卷奖励</t>
+  </si>
+  <si>
     <t>201000;5</t>
+  </si>
+  <si>
+    <t>玩法问卷奖励</t>
+  </si>
+  <si>
+    <t>三日问卷奖励</t>
+  </si>
+  <si>
+    <t>七日问卷奖励</t>
   </si>
   <si>
     <t>一二三四五六七八九十</t>
@@ -1160,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1249,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>15</v>
@@ -1258,7 +1270,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1266,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>15</v>
@@ -1275,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1283,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>15</v>
@@ -1292,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1300,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>15</v>
@@ -1309,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="409.5" spans="1:5">
@@ -1317,13 +1329,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1332,16 +1344,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1349,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
